--- a/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,73 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,8 +768,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +812,14 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +856,14 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +878,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F12" s="3">
         <v>4200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>3800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +962,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +1006,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1050,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,46 +1069,54 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6300</v>
+        <v>7500</v>
       </c>
       <c r="E17" s="3">
-        <v>6400</v>
+        <v>7600</v>
       </c>
       <c r="F17" s="3">
         <v>6300</v>
       </c>
       <c r="G17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I17" s="3">
         <v>4200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,37 +1124,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-6400</v>
+        <v>-7600</v>
       </c>
       <c r="F18" s="3">
         <v>-6300</v>
       </c>
       <c r="G18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-4200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1175,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,37 +1186,43 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1157,113 +1230,131 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-6100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-5900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6000</v>
+        <v>-7800</v>
       </c>
       <c r="E23" s="3">
-        <v>-6100</v>
+        <v>-7600</v>
       </c>
       <c r="F23" s="3">
         <v>-6000</v>
       </c>
       <c r="G23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-5000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1391,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1435,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6000</v>
+        <v>-7800</v>
       </c>
       <c r="E26" s="3">
-        <v>-6100</v>
+        <v>-7600</v>
       </c>
       <c r="F26" s="3">
         <v>-6000</v>
       </c>
       <c r="G26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-5000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6000</v>
+        <v>-7800</v>
       </c>
       <c r="E27" s="3">
-        <v>-6100</v>
+        <v>-7600</v>
       </c>
       <c r="F27" s="3">
         <v>-6000</v>
       </c>
       <c r="G27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-5000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1567,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1611,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1655,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1699,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1575,75 +1714,87 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6000</v>
+        <v>-7800</v>
       </c>
       <c r="E33" s="3">
-        <v>-6100</v>
+        <v>-7600</v>
       </c>
       <c r="F33" s="3">
         <v>-6000</v>
       </c>
       <c r="G33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-5000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1831,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6000</v>
+        <v>-7800</v>
       </c>
       <c r="E35" s="3">
-        <v>-6100</v>
+        <v>-7600</v>
       </c>
       <c r="F35" s="3">
         <v>-6000</v>
       </c>
       <c r="G35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-5000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1946,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,67 +1964,75 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F41" s="3">
         <v>27700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>22700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>21400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>28500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>5000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>6600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>39900</v>
+      </c>
+      <c r="F42" s="3">
         <v>34600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>34300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>40200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>37400</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1869,8 +2048,14 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2092,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,37 +2136,43 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -1983,46 +2180,58 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>55400</v>
+      </c>
+      <c r="F46" s="3">
         <v>62900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>57800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>62600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>67100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,8 +2268,14 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2074,22 +2289,22 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2097,31 +2312,37 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2135,8 +2356,14 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2400,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2444,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2225,18 +2464,18 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>1300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2488,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2532,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>55500</v>
+      </c>
+      <c r="F54" s="3">
         <v>63000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>57900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>62700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>67200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2598,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,46 +2616,54 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,122 +2700,146 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F61" s="3">
         <v>9600</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>11600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>10500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>8100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2556,37 +2847,43 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
       </c>
       <c r="H62" s="3">
+        <v>200</v>
+      </c>
+      <c r="I62" s="3">
+        <v>200</v>
+      </c>
+      <c r="J62" s="3">
         <v>2500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2920,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2964,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +3008,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F66" s="3">
         <v>14000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>16800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>12300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3074,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3114,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +3158,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3202,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3246,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-33500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-27500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-21500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-15500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-10500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3334,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3378,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3422,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>41800</v>
+      </c>
+      <c r="F76" s="3">
         <v>49000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>54100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>59500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>64900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-10400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-5600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3510,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6000</v>
+        <v>-7800</v>
       </c>
       <c r="E81" s="3">
-        <v>-6100</v>
+        <v>-7600</v>
       </c>
       <c r="F81" s="3">
         <v>-6000</v>
       </c>
       <c r="G81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-5000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3625,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3262,14 +3659,20 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3709,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3753,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3797,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3841,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3885,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3951,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3535,11 +3976,11 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3550,8 +3991,14 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4035,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,29 +4079,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>6000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-37400</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -3658,14 +4117,20 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +4145,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +4185,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4229,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4273,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,57 +4317,69 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>9900</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>64800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>6800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3896,11 +4393,11 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -3908,42 +4405,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F102" s="3">
         <v>5000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-7100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>23500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>6400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>EQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,77 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="3">
         <v>4700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1200</v>
       </c>
       <c r="K12" s="3">
         <v>1200</v>
       </c>
       <c r="L12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>800</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,31 +985,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1012,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,52 +1097,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E17" s="3">
         <v>7500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2200</v>
       </c>
       <c r="K17" s="3">
         <v>2200</v>
       </c>
       <c r="L17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1124,43 +1154,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-2200</v>
       </c>
       <c r="K18" s="3">
         <v>-2200</v>
       </c>
       <c r="L18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,43 +1220,46 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>300</v>
       </c>
       <c r="G20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
       </c>
       <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1230,43 +1267,46 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1277,7 +1317,7 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1286,75 +1326,81 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1714,87 +1784,93 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>-300</v>
       </c>
       <c r="G32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
       </c>
       <c r="I32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,41 +2052,42 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E41" s="3">
         <v>20600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,32 +2097,35 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E42" s="3">
         <v>27100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>39900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>34600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>34300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>40200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>37400</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2054,8 +2144,11 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2098,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,40 +2238,43 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2186,41 +2285,44 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E46" s="3">
         <v>49800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>55400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>62900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>57800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>62600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>67100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2332,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2298,7 +2406,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2306,8 +2414,8 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2318,8 +2426,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2344,8 +2455,8 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2470,15 +2590,15 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>1300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,41 +2661,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E54" s="3">
         <v>49900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>55500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>63000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>57900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>62700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>67200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2627,32 +2758,32 @@
         <v>1800</v>
       </c>
       <c r="E57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2793,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,41 +2840,44 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,41 +2887,44 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,23 +2934,26 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="E61" s="3">
         <v>9700</v>
       </c>
       <c r="F61" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G61" s="3">
         <v>9600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2818,17 +2961,17 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>11600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2838,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2853,7 +2999,7 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -2862,17 +3008,17 @@
         <v>200</v>
       </c>
       <c r="J62" s="3">
+        <v>200</v>
+      </c>
+      <c r="K62" s="3">
         <v>2500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,41 +3169,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E66" s="3">
         <v>13600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,41 +3423,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-48900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-41100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-21500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,41 +3611,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E76" s="3">
         <v>36300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>49000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>54100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>59500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>64900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-10400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3665,14 +3864,17 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3982,8 +4203,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3997,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,32 +4312,35 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E94" s="3">
         <v>13000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-37400</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4123,14 +4353,17 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9900</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>64800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4381,8 +4630,8 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -4399,8 +4648,8 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4411,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E102" s="3">
         <v>7400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>23500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>EQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E12" s="3">
         <v>4000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2500</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1200</v>
       </c>
       <c r="L12" s="3">
         <v>1200</v>
       </c>
       <c r="M12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>800</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,17 +1005,20 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1014,8 +1034,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1124,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E17" s="3">
         <v>6600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2200</v>
       </c>
       <c r="L17" s="3">
         <v>2200</v>
       </c>
       <c r="M17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,46 +1184,49 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-2200</v>
       </c>
       <c r="L18" s="3">
         <v>-2200</v>
       </c>
       <c r="M18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,46 +1254,49 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>300</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
       </c>
       <c r="H20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I20" s="3">
         <v>400</v>
       </c>
       <c r="J20" s="3">
+        <v>400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,46 +1304,49 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1320,7 +1360,7 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1329,78 +1369,84 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,93 +1854,99 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-300</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
       </c>
       <c r="H32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I32" s="3">
         <v>-400</v>
       </c>
       <c r="J32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,44 +2139,45 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E41" s="3">
         <v>24100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>28500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,35 +2187,38 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E42" s="3">
         <v>18500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>27100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>39900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>34600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>34300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>40200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>37400</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2250,34 +2349,34 @@
         <v>1600</v>
       </c>
       <c r="E45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -2288,44 +2387,47 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E46" s="3">
         <v>44200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>49800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>55400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>62900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>57800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>62600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>67100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,13 +2487,16 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -2409,7 +2517,7 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2417,8 +2525,8 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2458,8 +2569,8 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2593,15 +2713,15 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>1300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,44 +2787,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E54" s="3">
         <v>44300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>49900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>55500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>63000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>57900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>62700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>67200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,44 +2879,45 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E57" s="3">
         <v>1800</v>
       </c>
       <c r="F57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,31 +2927,34 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2843,44 +2977,47 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,44 +3027,47 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,26 +3077,29 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9800</v>
-      </c>
-      <c r="E61" s="3">
-        <v>9700</v>
       </c>
       <c r="F61" s="3">
         <v>9700</v>
       </c>
       <c r="G61" s="3">
+        <v>9700</v>
+      </c>
+      <c r="H61" s="3">
         <v>9600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2964,17 +3107,17 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>11600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3002,7 +3148,7 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -3011,17 +3157,17 @@
         <v>200</v>
       </c>
       <c r="K62" s="3">
+        <v>200</v>
+      </c>
+      <c r="L62" s="3">
         <v>2500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,44 +3327,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E66" s="3">
         <v>13300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,44 +3597,47 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-55400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-48900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-41100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-33500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-27500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,44 +3797,47 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E76" s="3">
         <v>31000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>36300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>41800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>49000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>54100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>59500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>64900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-10400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3867,14 +4066,17 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,13 +4394,14 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4206,8 +4427,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,35 +4542,38 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E94" s="3">
         <v>8500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>13000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>6000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-37400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4356,14 +4586,17 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>9900</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>64800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4633,8 +4882,8 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -4651,8 +4900,8 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E102" s="3">
         <v>3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>23500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>EQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,84 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -788,8 +791,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +844,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E12" s="3">
         <v>4900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2500</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1200</v>
       </c>
       <c r="M12" s="3">
         <v>1200</v>
       </c>
       <c r="N12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>800</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,20 +1024,23 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1037,8 +1056,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1058,8 +1077,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1150,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2200</v>
       </c>
       <c r="M17" s="3">
         <v>2200</v>
       </c>
       <c r="N17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1213,52 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-2200</v>
       </c>
       <c r="M18" s="3">
         <v>-2200</v>
       </c>
       <c r="N18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1277,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,49 +1287,52 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>300</v>
       </c>
       <c r="H20" s="3">
         <v>300</v>
       </c>
       <c r="I20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J20" s="3">
         <v>400</v>
       </c>
       <c r="K20" s="3">
+        <v>400</v>
+      </c>
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1340,52 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-6200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1363,7 +1402,7 @@
         <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1372,81 +1411,87 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1540,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1911,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,99 +1923,105 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-300</v>
       </c>
       <c r="H32" s="3">
         <v>-300</v>
       </c>
       <c r="I32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J32" s="3">
         <v>-400</v>
       </c>
       <c r="K32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
-      </c>
-      <c r="M32" s="3">
-        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,47 +2225,48 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E41" s="3">
         <v>49200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>28500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,38 +2276,41 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E42" s="3">
         <v>41300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>18500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>27100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>39900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>34600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>34300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>40200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>37400</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,8 +2329,11 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2382,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,46 +2435,49 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="E45" s="3">
         <v>1600</v>
       </c>
       <c r="F45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2390,47 +2488,50 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E46" s="3">
         <v>92200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>44200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>49800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>55400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>62900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>57800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>62600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>67100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,8 +2541,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2594,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2499,7 +2606,7 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -2520,7 +2627,7 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2528,8 +2635,8 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
@@ -2540,8 +2647,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2572,8 +2682,8 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2590,8 +2700,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2806,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2716,15 +2835,15 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
         <v>1300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,47 +2912,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E54" s="3">
         <v>92400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>49900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>55500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>63000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>57900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>62700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,47 +3009,48 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1800</v>
       </c>
       <c r="F57" s="3">
         <v>1800</v>
       </c>
       <c r="G57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,17 +3060,20 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2956,8 +3089,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2980,47 +3113,50 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,47 +3166,50 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,29 +3219,32 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E61" s="3">
         <v>9000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9800</v>
-      </c>
-      <c r="F61" s="3">
-        <v>9700</v>
       </c>
       <c r="G61" s="3">
         <v>9700</v>
       </c>
       <c r="H61" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I61" s="3">
         <v>9600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3110,17 +3252,17 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>11600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3130,8 +3272,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3151,7 +3296,7 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
@@ -3160,17 +3305,17 @@
         <v>200</v>
       </c>
       <c r="L62" s="3">
+        <v>200</v>
+      </c>
+      <c r="M62" s="3">
         <v>2500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,47 +3484,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E66" s="3">
         <v>14300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,47 +3770,50 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-62000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-55400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-48900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-41100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-33500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-27500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,47 +3982,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E76" s="3">
         <v>78100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>36300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>49000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>54100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>59500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>64900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-10400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4222,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4069,14 +4267,17 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,17 +4614,18 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -4430,8 +4650,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4445,8 +4665,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,38 +4771,41 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-23000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>8500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>13000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-37400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4589,14 +4818,17 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5057,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>53100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9900</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>64800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4885,8 +5133,8 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -4903,8 +5151,8 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -4915,54 +5163,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E102" s="3">
         <v>25200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>23500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>EQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,88 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,8 +798,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,8 +854,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E12" s="3">
         <v>7200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2500</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1200</v>
       </c>
       <c r="N12" s="3">
         <v>1200</v>
       </c>
       <c r="O12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>800</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,23 +1044,26 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1059,8 +1079,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1080,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,61 +1177,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E17" s="3">
         <v>9000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2200</v>
       </c>
       <c r="N17" s="3">
         <v>2200</v>
       </c>
       <c r="O17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1213,52 +1243,55 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-2200</v>
       </c>
       <c r="N18" s="3">
         <v>-2200</v>
       </c>
       <c r="O18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,8 +1311,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1287,52 +1321,55 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>300</v>
       </c>
       <c r="I20" s="3">
         <v>300</v>
       </c>
       <c r="J20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K20" s="3">
         <v>400</v>
       </c>
       <c r="L20" s="3">
+        <v>400</v>
+      </c>
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1340,52 +1377,55 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-6300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1405,7 +1445,7 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1414,84 +1454,90 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,8 +1981,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1923,105 +1993,111 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-300</v>
       </c>
       <c r="I32" s="3">
         <v>-300</v>
       </c>
       <c r="J32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K32" s="3">
         <v>-400</v>
       </c>
       <c r="L32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,50 +2312,51 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E41" s="3">
         <v>24000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>28500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,41 +2366,44 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E42" s="3">
         <v>58200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>41300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>18500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>27100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>39900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>34600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>34300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>40200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>37400</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,8 +2422,11 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2385,8 +2478,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,49 +2534,52 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
         <v>3000</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1600</v>
       </c>
       <c r="F45" s="3">
         <v>1600</v>
       </c>
       <c r="G45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2491,50 +2590,53 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>106600</v>
+      </c>
+      <c r="E46" s="3">
         <v>85200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>92200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>44200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>49800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>55400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>62900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>57800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>62600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>67100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,8 +2646,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2597,8 +2702,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2609,7 +2717,7 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -2630,7 +2738,7 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2638,8 +2746,8 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
@@ -2650,8 +2758,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2685,8 +2796,8 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,8 +2926,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2838,15 +2958,15 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,50 +3038,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E54" s="3">
         <v>85400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>92400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>49900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>55500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>63000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>57900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>62700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>67200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,50 +3140,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1800</v>
       </c>
       <c r="G57" s="3">
         <v>1800</v>
       </c>
       <c r="H57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,20 +3194,23 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,8 +3226,8 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3116,50 +3250,53 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,50 +3306,53 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E60" s="3">
         <v>7200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,32 +3362,35 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E61" s="3">
         <v>8300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>9700</v>
       </c>
       <c r="H61" s="3">
         <v>9700</v>
       </c>
       <c r="I61" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J61" s="3">
         <v>9600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3255,17 +3398,17 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>11600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3275,13 +3418,16 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -3299,7 +3445,7 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
@@ -3308,17 +3454,17 @@
         <v>200</v>
       </c>
       <c r="M62" s="3">
+        <v>200</v>
+      </c>
+      <c r="N62" s="3">
         <v>2500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,50 +3642,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E66" s="3">
         <v>15600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,50 +3944,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-70900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-62000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-55400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-48900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-41100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-33500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-27500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,50 +4168,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E76" s="3">
         <v>69900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>78100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>36300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>49000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>54100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>59500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>64900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-10400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4270,14 +4469,17 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,20 +4835,21 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4653,8 +4874,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4668,8 +4889,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,41 +5001,44 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>8500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>13000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>6000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-37400</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4821,14 +5051,17 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,61 +5303,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>53100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>9900</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>64800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5136,8 +5385,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -5154,8 +5403,8 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5166,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-25300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>25200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>23500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>800</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>EQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,92 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -944,55 +958,58 @@
         <v>6700</v>
       </c>
       <c r="E12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F12" s="3">
         <v>7200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2500</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1200</v>
       </c>
       <c r="O12" s="3">
         <v>1200</v>
       </c>
       <c r="P12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>800</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,26 +1064,29 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E14" s="3">
         <v>-800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1082,8 +1102,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1103,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,64 +1204,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E17" s="3">
         <v>8700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2200</v>
       </c>
       <c r="O17" s="3">
         <v>2200</v>
       </c>
       <c r="P17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1243,55 +1273,58 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-9000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-2200</v>
       </c>
       <c r="O18" s="3">
         <v>-2200</v>
       </c>
       <c r="P18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1321,55 +1355,58 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>300</v>
       </c>
       <c r="J20" s="3">
         <v>300</v>
       </c>
       <c r="K20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L20" s="3">
         <v>400</v>
       </c>
       <c r="M20" s="3">
+        <v>400</v>
+      </c>
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1377,55 +1414,58 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-8600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1448,7 +1488,7 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1457,87 +1497,93 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1993,111 +2063,117 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-300</v>
       </c>
       <c r="J32" s="3">
         <v>-300</v>
       </c>
       <c r="K32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L32" s="3">
         <v>-400</v>
       </c>
       <c r="M32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
-      </c>
-      <c r="O32" s="3">
-        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,53 +2399,54 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E41" s="3">
         <v>50900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>49200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>27700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>28500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,44 +2456,47 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E42" s="3">
         <v>53200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>58200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>41300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>18500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>27100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>39900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>34600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>34300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>40200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>37400</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2425,8 +2515,11 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2481,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,52 +2633,55 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1600</v>
       </c>
       <c r="G45" s="3">
         <v>1600</v>
       </c>
       <c r="H45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
@@ -2593,53 +2692,56 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E46" s="3">
         <v>106600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>85200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>92200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>44200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>49800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>55400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>62900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>57800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>62600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>67100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2751,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,13 +2810,16 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2720,7 +2828,7 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -2741,7 +2849,7 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2749,8 +2857,8 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
@@ -2761,8 +2869,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2799,8 +2910,8 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2961,15 +3081,15 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,53 +3164,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>99800</v>
+      </c>
+      <c r="E54" s="3">
         <v>106800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>85400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>92400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>44300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>49900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>55500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>63000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>57900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>62700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>67200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,53 +3271,54 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1800</v>
       </c>
       <c r="H57" s="3">
         <v>1800</v>
       </c>
       <c r="I57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,23 +3328,26 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3229,8 +3363,8 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3253,53 +3387,56 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,53 +3446,56 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,35 +3505,38 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E61" s="3">
         <v>7500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9800</v>
-      </c>
-      <c r="H61" s="3">
-        <v>9700</v>
       </c>
       <c r="I61" s="3">
         <v>9700</v>
       </c>
       <c r="J61" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K61" s="3">
         <v>9600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3401,17 +3544,17 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>11600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8100</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3421,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3430,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -3448,7 +3594,7 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>200</v>
@@ -3457,17 +3603,17 @@
         <v>200</v>
       </c>
       <c r="N62" s="3">
+        <v>200</v>
+      </c>
+      <c r="O62" s="3">
         <v>2500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,53 +3800,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E66" s="3">
         <v>15000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,53 +4118,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-89100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-79900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-70900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-55400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-48900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-41100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-33500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-27500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-21500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,53 +4354,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>84800</v>
+      </c>
+      <c r="E76" s="3">
         <v>91900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>69900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>78100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>31000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>36300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>41800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>49000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>54100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>59500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>64900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-10400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4472,14 +4671,17 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,23 +5056,24 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -4877,8 +5098,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4892,8 +5113,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,44 +5231,47 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E94" s="3">
         <v>4900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>8500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>13000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>6000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-37400</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5054,14 +5284,17 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>30000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>53100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>9900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>64800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5388,8 +5637,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -5406,8 +5655,8 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5418,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E102" s="3">
         <v>26900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-25300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>25200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>23500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>EQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>6700</v>
+        <v>8500</v>
       </c>
       <c r="E12" s="3">
         <v>6700</v>
       </c>
       <c r="F12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G12" s="3">
         <v>7200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2500</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1200</v>
       </c>
       <c r="P12" s="3">
         <v>1200</v>
       </c>
       <c r="Q12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>800</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,29 +1084,32 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E14" s="3">
         <v>-700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1105,8 +1125,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,67 +1231,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E17" s="3">
         <v>8800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2200</v>
       </c>
       <c r="P17" s="3">
         <v>2200</v>
       </c>
       <c r="Q17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,58 +1303,61 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-8700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-2200</v>
       </c>
       <c r="P18" s="3">
         <v>-2200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1358,55 +1392,58 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>300</v>
       </c>
       <c r="K20" s="3">
         <v>300</v>
       </c>
       <c r="L20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M20" s="3">
         <v>400</v>
       </c>
       <c r="N20" s="3">
+        <v>400</v>
+      </c>
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,58 +1451,61 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-8700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1491,7 +1531,7 @@
         <v>300</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1500,90 +1540,96 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2066,114 +2136,120 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-300</v>
       </c>
       <c r="K32" s="3">
         <v>-300</v>
       </c>
       <c r="L32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M32" s="3">
         <v>-400</v>
       </c>
       <c r="N32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,56 +2486,57 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E41" s="3">
         <v>73500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>50900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>49200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,47 +2546,50 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E42" s="3">
         <v>24100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>53200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>58200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>41300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>18500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>27100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>39900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>34600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>34300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>40200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>37400</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,55 +2732,58 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1600</v>
       </c>
       <c r="H45" s="3">
         <v>1600</v>
       </c>
       <c r="I45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
@@ -2695,56 +2794,59 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E46" s="3">
         <v>99600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>106600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>85200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>92200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>44200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>49800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>55400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>62900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>57800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>62600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>67100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,16 +2918,19 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>200</v>
+      </c>
+      <c r="E48" s="3">
         <v>300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -2831,7 +2939,7 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -2852,7 +2960,7 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2860,8 +2968,8 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2913,8 +3024,8 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,13 +3166,16 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3084,15 +3204,15 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
         <v>1300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,56 +3290,59 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E54" s="3">
         <v>99800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>106800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>85400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>92400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>44300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>49900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>55500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>63000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>57900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>62700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>67200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,56 +3402,57 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1800</v>
       </c>
       <c r="I57" s="3">
         <v>1800</v>
       </c>
       <c r="J57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3331,26 +3462,29 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,8 +3500,8 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3390,56 +3524,59 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,56 +3586,59 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E60" s="3">
         <v>5000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,38 +3648,41 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E61" s="3">
         <v>10100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9800</v>
-      </c>
-      <c r="I61" s="3">
-        <v>9700</v>
       </c>
       <c r="J61" s="3">
         <v>9700</v>
       </c>
       <c r="K61" s="3">
+        <v>9700</v>
+      </c>
+      <c r="L61" s="3">
         <v>9600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3547,17 +3690,17 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>11600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8100</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3579,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -3597,7 +3743,7 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>200</v>
@@ -3606,17 +3752,17 @@
         <v>200</v>
       </c>
       <c r="O62" s="3">
+        <v>200</v>
+      </c>
+      <c r="P62" s="3">
         <v>2500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>800</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,56 +3958,59 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E66" s="3">
         <v>15100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9400</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,56 +4292,59 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-99400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-89100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-79900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-70900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-62000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-55400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-48900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-41100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-33500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-27500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,56 +4540,59 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E76" s="3">
         <v>84800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>91900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>69900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>78100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>36300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>41800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>49000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>54100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>59500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>64900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-10400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2300</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4674,14 +4873,17 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4984,58 +5201,61 @@
         <v>-7000</v>
       </c>
       <c r="E89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,26 +5277,27 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -5101,8 +5322,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,47 +5461,50 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E94" s="3">
         <v>29000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>8500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>13000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>6000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-37400</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5287,14 +5517,17 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>30000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>53100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>64800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6800</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5640,8 +5889,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -5658,8 +5907,8 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E102" s="3">
         <v>22700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>26900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-25300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>25200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>23500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>800</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>EQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,99 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -815,8 +818,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +883,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +948,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,70 +975,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E12" s="3">
         <v>8500</v>
-      </c>
-      <c r="E12" s="3">
-        <v>6700</v>
       </c>
       <c r="F12" s="3">
         <v>6700</v>
       </c>
       <c r="G12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H12" s="3">
         <v>7200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2500</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1200</v>
       </c>
       <c r="Q12" s="3">
         <v>1200</v>
       </c>
       <c r="R12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
       <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
         <v>800</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,32 +1103,35 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1128,8 +1147,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1149,8 +1168,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1257,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E17" s="3">
         <v>9900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2200</v>
       </c>
       <c r="Q17" s="3">
         <v>2200</v>
       </c>
       <c r="R17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1332,64 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-8800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-2200</v>
       </c>
       <c r="Q18" s="3">
         <v>-2200</v>
       </c>
       <c r="R18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1412,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,61 +1422,64 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>300</v>
       </c>
       <c r="L20" s="3">
         <v>300</v>
       </c>
       <c r="M20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N20" s="3">
         <v>400</v>
       </c>
       <c r="O20" s="3">
+        <v>400</v>
+      </c>
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,61 +1487,64 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-8900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1534,7 +1573,7 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1543,93 +1582,99 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1735,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2060,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2190,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,123 +2202,129 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-300</v>
       </c>
       <c r="L32" s="3">
         <v>-300</v>
       </c>
       <c r="M32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N32" s="3">
         <v>-400</v>
       </c>
       <c r="O32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,59 +2572,60 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E41" s="3">
         <v>77200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>73500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>50900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>49200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2549,50 +2635,53 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E42" s="3">
         <v>13500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>24100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>53200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>58200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>41300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>18500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>27100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>39900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>34600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>34300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>40200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>37400</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,8 +2700,11 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2765,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,58 +2830,61 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1600</v>
       </c>
       <c r="I45" s="3">
         <v>1600</v>
       </c>
       <c r="J45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
@@ -2797,59 +2895,62 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E46" s="3">
         <v>92200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>99600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>106600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>85200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>92200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>44200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>49800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>55400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>62900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>57800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>62600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>67100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7100</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,8 +2960,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,19 +3025,22 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -2942,7 +3049,7 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2963,7 +3070,7 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2971,8 +3078,8 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
@@ -2983,8 +3090,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3027,8 +3137,8 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
@@ -3045,8 +3155,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,17 +3285,20 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
@@ -3207,15 +3326,15 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3231,8 +3350,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,59 +3415,62 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E54" s="3">
         <v>92500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>99800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>106800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>85400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>92400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>44300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>49900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>63000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>57900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>62700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>67200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7200</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3480,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,59 +3532,60 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1800</v>
       </c>
       <c r="J57" s="3">
         <v>1800</v>
       </c>
       <c r="K57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3465,29 +3595,32 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3503,8 +3636,8 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3527,59 +3660,62 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E59" s="3">
         <v>3900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3589,59 +3725,62 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E60" s="3">
         <v>7800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,41 +3790,44 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E61" s="3">
         <v>8900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9800</v>
-      </c>
-      <c r="J61" s="3">
-        <v>9700</v>
       </c>
       <c r="K61" s="3">
         <v>9700</v>
       </c>
       <c r="L61" s="3">
+        <v>9700</v>
+      </c>
+      <c r="M61" s="3">
         <v>9600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3693,17 +3835,17 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>11600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8100</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3713,13 +3855,16 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3728,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -3746,7 +3891,7 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>200</v>
@@ -3755,17 +3900,17 @@
         <v>200</v>
       </c>
       <c r="P62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>800</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3775,8 +3920,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,59 +4115,62 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E66" s="3">
         <v>16700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9400</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4023,8 +4180,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,59 +4465,62 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-99400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-89100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-79900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-70900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-62000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-55400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-48900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-41100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-33500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-27500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-21500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4357,8 +4530,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,59 +4725,62 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E76" s="3">
         <v>75800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>84800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>91900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>69900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>78100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>31000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>41800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>49000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>54100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>59500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>64900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2300</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4605,8 +4790,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5017,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4876,14 +5074,17 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7000</v>
+        <v>-10100</v>
       </c>
       <c r="E89" s="3">
         <v>-7000</v>
       </c>
       <c r="F89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="G89" s="3">
         <v>-7900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,29 +5497,30 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -5325,8 +5545,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
@@ -5340,8 +5560,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,50 +5690,53 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E94" s="3">
         <v>10500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>29000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>8500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>13000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>6000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-37400</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5520,14 +5749,17 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6040,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5807,61 +6052,64 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>30000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>53100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
         <v>64800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>1600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6800</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5892,8 +6140,8 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -5910,8 +6158,8 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -5922,66 +6170,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E102" s="3">
         <v>3600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>22700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>26900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-25300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>25200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>23500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>800</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>EQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,107 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -821,8 +829,14 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,8 +900,14 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +971,14 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,73 +1002,81 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F12" s="3">
         <v>7500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>8500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>6700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>6700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>7200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>4900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>4000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>4700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>5400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>4200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>4300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>3800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>2500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>500</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
         <v>800</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,38 +1140,44 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>400</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1150,11 +1190,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1171,8 +1211,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1282,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,73 +1310,81 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>37300</v>
+      </c>
+      <c r="F17" s="3">
         <v>10400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>9900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>8800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>9000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>6300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>6400</v>
       </c>
       <c r="O17" s="3">
         <v>6300</v>
       </c>
       <c r="P17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="R17" s="3">
         <v>4200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1332,64 +1392,70 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-9900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-8800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-8700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-9000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-6500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-7500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-7600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-6400</v>
       </c>
       <c r="O18" s="3">
         <v>-6300</v>
       </c>
       <c r="P18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1000</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,8 +1479,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1422,64 +1490,70 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1487,64 +1561,70 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-10000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-8900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-8700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-8600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-6300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-6200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-7600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-7300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-6000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-6100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-5900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-3700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1000</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1576,105 +1656,117 @@
         <v>300</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-10600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-10300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-9200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-9000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-8900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-6600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-7600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-6100</v>
       </c>
       <c r="O23" s="3">
         <v>-6000</v>
       </c>
       <c r="P23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="R23" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-4900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1738,8 +1830,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1901,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-10600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-10300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-9200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-9000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-8900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-6600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-7600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-6100</v>
       </c>
       <c r="O26" s="3">
         <v>-6000</v>
       </c>
       <c r="P26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="R26" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-4900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-10600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-10300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-9200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-9000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-8900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-6600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-7600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-6100</v>
       </c>
       <c r="O27" s="3">
         <v>-6000</v>
       </c>
       <c r="P27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="R27" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-4900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2114,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2063,8 +2185,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,8 +2327,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2202,129 +2342,141 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-10600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-10300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-9200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-9000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-8900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-6600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-7600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-6100</v>
       </c>
       <c r="O33" s="3">
         <v>-6000</v>
       </c>
       <c r="P33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="R33" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-4900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2540,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-10600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-10300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-9200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-9000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-8900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-6600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-7600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-6100</v>
       </c>
       <c r="O35" s="3">
         <v>-6000</v>
       </c>
       <c r="P35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="R35" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-4900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,121 +2745,129 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F41" s="3">
         <v>50400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>77200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>73500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>50900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>24000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>49200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>24100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>20600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>13200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>27700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>22700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>21400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>28500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>5000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>7100</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>42600</v>
+      </c>
+      <c r="F42" s="3">
         <v>30300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>13500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>24100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>53200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>58200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>41300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>18500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>27100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>39900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>34600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>34300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>40200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>37400</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,8 +2883,14 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2768,8 +2954,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2833,64 +3025,70 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
@@ -2898,73 +3096,85 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>72100</v>
+      </c>
+      <c r="F46" s="3">
         <v>83400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>92200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>99600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>106600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>85200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>92200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>44200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>49800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>55400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>62900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>57800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>62600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>67100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>6700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>7100</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3028,8 +3238,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3037,25 +3253,25 @@
         <v>1900</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="F48" s="3">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -3073,19 +3289,19 @@
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
@@ -3093,8 +3309,14 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3140,11 +3362,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
@@ -3158,8 +3380,14 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,22 +3522,28 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3329,18 +3569,18 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3">
         <v>1300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3593,14 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3664,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>74200</v>
+      </c>
+      <c r="F54" s="3">
         <v>85400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>92500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>99800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>106800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>85400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>92400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>44300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>49900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>55500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>63000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>57900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>62700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>67200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>6400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>7200</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,100 +3793,108 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>2500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3639,11 +3907,11 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3663,223 +3931,247 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F59" s="3">
         <v>6300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2800</v>
       </c>
       <c r="I59" s="3">
         <v>2600</v>
       </c>
       <c r="J59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F60" s="3">
         <v>8900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F61" s="3">
         <v>8800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>8900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>10100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>8300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>9000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>9800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>9700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>9700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>9600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>11600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>10500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>8100</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -3894,37 +4186,43 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>200</v>
       </c>
       <c r="Q62" s="3">
+        <v>200</v>
+      </c>
+      <c r="R62" s="3">
+        <v>200</v>
+      </c>
+      <c r="S62" s="3">
         <v>2500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>800</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4428,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F66" s="3">
         <v>18900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>16700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>15100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>15000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>15600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>14300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>13300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>13600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>14000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>16800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>12300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>9400</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4810,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-161500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-147400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-110000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-99400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-89100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-79900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-70900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-62000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-55400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-48900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-41100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-33500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-27500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-21500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-10500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-5600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +5094,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>52600</v>
+      </c>
+      <c r="F76" s="3">
         <v>66500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>75800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>84800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>91900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>69900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>78100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>31000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>36300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>41800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>49000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>54100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>59500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>64900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-10400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-5600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2300</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5236,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-10600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-10300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-9200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-9000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-8900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-6600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-7600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-6100</v>
       </c>
       <c r="O81" s="3">
         <v>-6000</v>
       </c>
       <c r="P81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="R81" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-4900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,8 +5414,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5077,14 +5475,20 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5836,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-10100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-7000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-7000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-7900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-8300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-5100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-6400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-9000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-4700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-4800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-4500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,34 +5938,36 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
         <v>-200</v>
       </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5548,11 +5990,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
@@ -5563,8 +6005,14 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,56 +6147,62 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-16900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>10500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>29000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>4900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-17000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-23000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>8500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>13000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>6000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-37400</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -5752,14 +6212,20 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6316,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,73 +6529,85 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>30000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>53100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>9900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3">
         <v>64800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>1600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>6800</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>1000</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6143,11 +6641,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
@@ -6161,11 +6659,11 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -6173,69 +6671,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-26800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>22700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>26900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-25300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>25200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>7400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-14400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>5000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-7100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>23500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>6400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>800</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>EQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E12" s="3">
         <v>9500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>33400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>6700</v>
       </c>
       <c r="I12" s="3">
         <v>6700</v>
       </c>
       <c r="J12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K12" s="3">
         <v>7200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2500</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1200</v>
       </c>
       <c r="T12" s="3">
         <v>1200</v>
       </c>
       <c r="U12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V12" s="3">
         <v>500</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
       <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
         <v>800</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,41 +1163,44 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1196,8 +1216,8 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,79 +1338,83 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E17" s="3">
         <v>13600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>2200</v>
       </c>
       <c r="T17" s="3">
         <v>2200</v>
       </c>
       <c r="U17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,70 +1422,73 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-37300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-2200</v>
       </c>
       <c r="T18" s="3">
         <v>-2200</v>
       </c>
       <c r="U18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,70 +1524,73 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>300</v>
       </c>
       <c r="O20" s="3">
         <v>300</v>
       </c>
       <c r="P20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q20" s="3">
         <v>400</v>
       </c>
       <c r="R20" s="3">
+        <v>400</v>
+      </c>
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-100</v>
       </c>
       <c r="U20" s="3">
         <v>-100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
+      <c r="X20" s="3">
+        <v>0</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,70 +1598,73 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-37100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1000</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1662,7 +1702,7 @@
         <v>300</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1671,102 +1711,108 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>3</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-37400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-37400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-37400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,141 +2412,147 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-300</v>
       </c>
       <c r="O32" s="3">
         <v>-300</v>
       </c>
       <c r="P32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q32" s="3">
         <v>-400</v>
       </c>
       <c r="R32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1500</v>
-      </c>
-      <c r="T32" s="3">
-        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
+      <c r="X32" s="3">
+        <v>0</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-37400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-37400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,68 +2833,69 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E41" s="3">
         <v>23800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>50400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>77200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>73500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>50900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>28500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7100</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,59 +2905,62 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E42" s="3">
         <v>33800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>42600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>30300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>13500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>24100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>53200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>58200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>41300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>18500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>27100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>39900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>34600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>34300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>40200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>37400</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,67 +3127,70 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1600</v>
       </c>
       <c r="L45" s="3">
         <v>1600</v>
       </c>
       <c r="M45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
-      </c>
-      <c r="S45" s="3">
-        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
@@ -3102,68 +3201,71 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E46" s="3">
         <v>60500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>72100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>83400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>92200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>99600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>106600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>85200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>92200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>44200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>49800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>55400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>62900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>57800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>62600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>67100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7100</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3173,8 +3275,11 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,28 +3349,31 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -3274,7 +3382,7 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -3295,7 +3403,7 @@
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3303,8 +3411,8 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3368,8 +3479,8 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3540,14 +3660,14 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
@@ -3575,15 +3695,15 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3">
         <v>1300</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,68 +3793,71 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E54" s="3">
         <v>62500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>74200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>85400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>92500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>99800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>106800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>85400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>92400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>49900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>63000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>57900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>62700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>67200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7200</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,68 +3925,69 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>5100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1800</v>
       </c>
       <c r="M57" s="3">
         <v>1800</v>
       </c>
       <c r="N57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,38 +3997,41 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E58" s="3">
         <v>4300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>2500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3913,8 +4047,8 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3937,68 +4071,71 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E59" s="3">
         <v>5800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4008,68 +4145,71 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E60" s="3">
         <v>15200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4079,50 +4219,53 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E61" s="3">
         <v>6000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9800</v>
-      </c>
-      <c r="M61" s="3">
-        <v>9700</v>
       </c>
       <c r="N61" s="3">
         <v>9700</v>
       </c>
       <c r="O61" s="3">
+        <v>9700</v>
+      </c>
+      <c r="P61" s="3">
         <v>9600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4130,17 +4273,17 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>11600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8100</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4150,23 +4293,26 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
@@ -4174,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -4192,7 +4338,7 @@
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>200</v>
@@ -4201,17 +4347,17 @@
         <v>200</v>
       </c>
       <c r="S62" s="3">
+        <v>200</v>
+      </c>
+      <c r="T62" s="3">
         <v>2500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>800</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,68 +4589,71 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E66" s="3">
         <v>22200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9400</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,68 +4987,71 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-175200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-161500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-147400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-110000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-99400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-89100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-79900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-70900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-62000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-55400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-48900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-41100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-33500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-21500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-15500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2300</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,68 +5283,71 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E76" s="3">
         <v>40300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>66500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>75800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>84800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>91900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>69900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>78100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>41800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>49000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>54100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>59500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>64900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-10400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2300</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5171,8 +5357,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-37400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5481,14 +5680,17 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
+      <c r="X83" s="3">
+        <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-7000</v>
       </c>
       <c r="H89" s="3">
         <v>-7000</v>
       </c>
       <c r="I89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="J89" s="3">
         <v>-7900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,38 +6160,39 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -5996,8 +6217,8 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,59 +6380,62 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E94" s="3">
         <v>8700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>10500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>29000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>8500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>13000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>6000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-37400</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6218,14 +6448,17 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>30000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>53100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>9900</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3">
         <v>64800</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>1600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6800</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>1000</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6647,8 +6896,8 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
@@ -6665,8 +6914,8 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-24100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-26800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>22700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>26900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-25300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>23500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>800</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
   <si>
     <t>EQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,134 +665,141 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>8900</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>15800</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -842,8 +849,14 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +929,14 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1009,14 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,82 +1043,90 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F12" s="3">
         <v>8800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>9500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>33400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>7500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>8500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>6700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>6700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>4900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>4000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>4700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>5400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>4200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>4300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>3800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>2500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>500</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
         <v>800</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1199,14 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1177,36 +1216,36 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,11 +1258,11 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1240,8 +1279,14 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1359,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1390,170 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F17" s="3">
         <v>13200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>13600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>37300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>10400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>9900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>7600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>6300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>6400</v>
       </c>
       <c r="R17" s="3">
         <v>6300</v>
       </c>
       <c r="S17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="T17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="U17" s="3">
         <v>4200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1000</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-4100</v>
       </c>
       <c r="E18" s="3">
-        <v>-13600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-37300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="I18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-8800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-8700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-9000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-6600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-7500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-7600</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-6400</v>
       </c>
       <c r="R18" s="3">
         <v>-6300</v>
       </c>
       <c r="S18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="U18" s="3">
         <v>-4200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-2200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,161 +1580,175 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>400</v>
       </c>
       <c r="E20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>300</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
+        <v>400</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
-        <v>200</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="R20" s="3">
+        <v>300</v>
+      </c>
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="T20" s="3">
+        <v>400</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-500</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-3600</v>
       </c>
       <c r="E21" s="3">
-        <v>-13800</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-37100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="I21" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-8900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-8700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-8600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-6300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-6200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-7600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-7300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-6100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-5900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-4800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-3700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
@@ -1705,137 +1784,149 @@
         <v>300</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>1200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>1100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>400</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-13700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-14100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-37400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-10600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-10300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-9200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-9000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-8900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-6500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-7800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-7600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-6100</v>
       </c>
       <c r="R23" s="3">
         <v>-6000</v>
       </c>
       <c r="S23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="U23" s="3">
         <v>-5000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-4900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1885,8 +1976,14 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2056,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-13700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-14100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-37400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-10600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-10300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-9200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-9000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-8900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-6600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-7800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-7600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-6100</v>
       </c>
       <c r="R26" s="3">
         <v>-6000</v>
       </c>
       <c r="S26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="U26" s="3">
         <v>-5000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-4900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-3300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-13700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-14100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-37400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-10600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-10300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-9200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-9000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-8900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-7800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-7600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-6100</v>
       </c>
       <c r="R27" s="3">
         <v>-6000</v>
       </c>
       <c r="S27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="U27" s="3">
         <v>-5000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-4900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-3300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2296,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2376,14 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2456,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2536,174 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
-        <v>300</v>
-      </c>
-      <c r="F32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="R32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="T32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U32" s="3">
+        <v>500</v>
+      </c>
+      <c r="V32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>500</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1500</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
-        <v>100</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-13700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-14100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-37400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-10600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-10300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-9200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-9000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-7800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-7600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-6100</v>
       </c>
       <c r="R33" s="3">
         <v>-6000</v>
       </c>
       <c r="S33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="U33" s="3">
         <v>-5000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-4900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-3300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2776,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-13700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-14100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-37400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-10600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-10300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-9200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-9000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-7800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-7600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-6100</v>
       </c>
       <c r="R35" s="3">
         <v>-6000</v>
       </c>
       <c r="S35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="U35" s="3">
         <v>-5000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-4900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-3300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2975,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,139 +3005,147 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>59100</v>
+      </c>
+      <c r="F41" s="3">
         <v>25700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>23800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>26200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>50400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>77200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>73500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>50900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>24000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>49200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>24100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>20600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>13200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>27700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>22700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>21400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>28500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>5000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>6600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>7100</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F42" s="3">
         <v>18800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>33800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>42600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>30300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>13500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>24100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>53200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>58200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>41300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>18500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>27100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>39900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>34600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>34300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>40200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>37400</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,31 +3161,37 @@
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>2800</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -3056,8 +3241,14 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,73 +3321,79 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2300</v>
+        <v>4800</v>
       </c>
       <c r="E45" s="3">
         <v>2900</v>
       </c>
       <c r="F45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H45" s="3">
         <v>3300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>3</v>
@@ -3204,82 +3401,94 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>76700</v>
+      </c>
+      <c r="F46" s="3">
         <v>46800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>60500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>72100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>83400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>92200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>99600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>106600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>85200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>92200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>44200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>49800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>55400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>62900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>57800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>62600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>67100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>5100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>6700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>7100</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,43 +3561,49 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F48" s="3">
         <v>1700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2000</v>
       </c>
       <c r="G48" s="3">
         <v>1900</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I48" s="3">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -3406,19 +3621,19 @@
         <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
@@ -3426,8 +3641,14 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3482,11 +3703,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
@@ -3500,8 +3721,14 @@
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3801,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3881,14 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3663,16 +3902,16 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3698,18 +3937,18 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3">
         <v>1300</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3722,8 +3961,14 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +4041,94 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>78400</v>
+      </c>
+      <c r="F54" s="3">
         <v>48600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>62500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>74200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>85400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>92500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>99800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>106800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>85400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>92400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>44300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>49900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>55500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>63000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>57900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>62700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>67200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>6400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>6700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>7200</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4155,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,82 +4185,90 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4009,35 +4276,35 @@
         <v>5700</v>
       </c>
       <c r="E58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G58" s="3">
         <v>4300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>2500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4050,11 +4317,11 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4074,259 +4341,283 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>22300</v>
+      </c>
+      <c r="F59" s="3">
         <v>6700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>6300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2800</v>
       </c>
       <c r="L59" s="3">
         <v>2600</v>
       </c>
       <c r="M59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F60" s="3">
         <v>14900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>15200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>13100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>600</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F61" s="3">
         <v>4600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>6000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>8800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>8900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>10100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>7500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>8300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>9000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>9800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>9700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>9700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>9600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>11600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>10500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>8100</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -4341,37 +4632,43 @@
         <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>200</v>
       </c>
       <c r="T62" s="3">
+        <v>200</v>
+      </c>
+      <c r="U62" s="3">
+        <v>200</v>
+      </c>
+      <c r="V62" s="3">
         <v>2500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>800</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4741,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4821,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4901,94 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>46500</v>
+      </c>
+      <c r="F66" s="3">
         <v>20500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>22200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>21600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>18900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>16700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>15100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>15000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>15600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>14300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>13300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>13600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>13700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>14000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>16800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>12300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>9400</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +5015,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +5091,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5171,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5251,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5331,94 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-176300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-172400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-175200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-161500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-147400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-110000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-99400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-89100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-79900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-70900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-62000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-55400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-48900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-41100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-27500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-21500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-15500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-10500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-5600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2300</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5491,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5571,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5651,94 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>31900</v>
+      </c>
+      <c r="F76" s="3">
         <v>28200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>40300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>52600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>66500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>75800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>84800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>91900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>69900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>78100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>31000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>36300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>41800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>49000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>54100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>59500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>64900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-10400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-5600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-2300</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5811,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-13700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-14100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-37400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-10600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-10300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-9200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-9000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-7800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-7600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-6100</v>
       </c>
       <c r="R81" s="3">
         <v>-6000</v>
       </c>
       <c r="S81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="U81" s="3">
         <v>-5000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-4900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-3300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +6010,10 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5683,14 +6080,20 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +6166,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6246,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6326,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6406,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6486,94 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>27700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-13100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-11300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-12100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-10100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-7000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-7900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-8300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-5100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-6400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-9000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-4500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-3800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-2100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6600,10 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6170,35 +6611,35 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -6220,11 +6661,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
@@ -6235,8 +6676,14 @@
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6756,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,65 +6836,71 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F94" s="3">
         <v>15000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>8700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-12000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-16900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>10500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>29000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>4900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-17000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-23000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>8500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>13000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-5300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>6000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-37400</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -6451,14 +6910,20 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6950,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +7026,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +7106,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +7186,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7266,94 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="E100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>30000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>53100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>9900</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3">
         <v>64800</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>1600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>6800</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>1000</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6899,11 +7396,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
@@ -6917,11 +7414,11 @@
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y101" s="3">
         <v>0</v>
@@ -6929,78 +7426,90 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F102" s="3">
         <v>1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-24100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-26800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>3600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>22700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>26900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-25300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>25200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>7400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-14400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>5000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-7100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>23500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>6400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>800</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z102" s="3" t="s">
+      <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
   <si>
     <t>EQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E8" s="3">
         <v>8900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15800</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -801,8 +805,8 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -855,8 +859,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -935,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1045,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E12" s="3">
         <v>9300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>33400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8500</v>
-      </c>
-      <c r="K12" s="3">
-        <v>6700</v>
       </c>
       <c r="L12" s="3">
         <v>6700</v>
       </c>
       <c r="M12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="N12" s="3">
         <v>7200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2500</v>
-      </c>
-      <c r="V12" s="3">
-        <v>1200</v>
       </c>
       <c r="W12" s="3">
         <v>1200</v>
       </c>
       <c r="X12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y12" s="3">
         <v>500</v>
       </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
       <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
         <v>800</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1205,50 +1222,53 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,8 +1284,8 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1285,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1365,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1392,100 +1418,104 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E17" s="3">
         <v>13000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4200</v>
-      </c>
-      <c r="V17" s="3">
-        <v>2200</v>
       </c>
       <c r="W17" s="3">
         <v>2200</v>
       </c>
       <c r="X17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1000</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2100</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1498,62 +1528,65 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-8800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4200</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-2200</v>
       </c>
       <c r="W18" s="3">
         <v>-2200</v>
       </c>
       <c r="X18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,20 +1615,21 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1608,74 +1642,77 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>300</v>
       </c>
       <c r="R20" s="3">
         <v>300</v>
       </c>
       <c r="S20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T20" s="3">
         <v>400</v>
       </c>
       <c r="U20" s="3">
+        <v>400</v>
+      </c>
+      <c r="V20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-100</v>
       </c>
       <c r="X20" s="3">
         <v>-100</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
+      <c r="AA20" s="3">
+        <v>0</v>
       </c>
       <c r="AB20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1688,70 +1725,73 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-8900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
@@ -1790,7 +1830,7 @@
         <v>300</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1799,120 +1839,126 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>400</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>3</v>
+      <c r="AA22" s="3">
+        <v>0</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-37400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +1974,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1982,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2062,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-37400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-37400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2302,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2382,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2462,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2542,20 +2609,23 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,142 +2638,148 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-300</v>
       </c>
       <c r="R32" s="3">
         <v>-300</v>
       </c>
       <c r="S32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="T32" s="3">
         <v>-400</v>
       </c>
       <c r="U32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1500</v>
-      </c>
-      <c r="W32" s="3">
-        <v>100</v>
       </c>
       <c r="X32" s="3">
         <v>100</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
+      <c r="AA32" s="3">
+        <v>0</v>
       </c>
       <c r="AB32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-37400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2782,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-37400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2977,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3007,77 +3093,78 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E41" s="3">
         <v>24500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>59100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>25700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>26200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>50400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>77200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>73500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>50900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>49200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>27700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>22700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>21400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>28500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7100</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3087,68 +3174,71 @@
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E42" s="3">
         <v>37500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>11900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>18800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>33800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>42600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>30300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>13500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>24100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>53200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>58200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>41300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>18500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>27100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>39900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>34600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>34300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>40200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>37400</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3167,20 +3257,23 @@
       <c r="AB42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E43" s="3">
         <v>3400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2800</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3193,8 +3286,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -3247,8 +3340,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3327,76 +3423,79 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E45" s="3">
         <v>4800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3000</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1600</v>
       </c>
       <c r="O45" s="3">
         <v>1600</v>
       </c>
       <c r="P45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q45" s="3">
         <v>2100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1200</v>
-      </c>
-      <c r="V45" s="3">
-        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>3</v>
@@ -3407,77 +3506,80 @@
       <c r="AB45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E46" s="3">
         <v>70200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>76700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>46800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>60500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>72100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>83400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>92200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>99600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>106600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>85200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>92200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>44200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>49800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>55400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>62900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>57800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>62600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>67100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7100</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3487,8 +3589,11 @@
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3567,37 +3672,40 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -3606,7 +3714,7 @@
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -3627,7 +3735,7 @@
         <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3635,8 +3743,8 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>3</v>
+      <c r="Y48" s="3">
+        <v>0</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>3</v>
@@ -3647,8 +3755,11 @@
       <c r="AB48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3709,8 +3820,8 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>3</v>
+      <c r="W49" s="3">
+        <v>0</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>3</v>
@@ -3727,8 +3838,11 @@
       <c r="AB49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3807,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3887,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3908,14 +4028,14 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
@@ -3943,15 +4063,15 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W52" s="3">
         <v>1300</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3967,8 +4087,11 @@
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4047,77 +4170,80 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E54" s="3">
         <v>71800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>78400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>48600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>62500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>74200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>85400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>92500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>99800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>106800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>85400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>92400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>49900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>55500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>63000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>57900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>62700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>67200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7200</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4127,8 +4253,11 @@
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4157,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4187,77 +4317,78 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1800</v>
       </c>
       <c r="P57" s="3">
         <v>1800</v>
       </c>
       <c r="Q57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>200</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4267,13 +4398,16 @@
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>5700</v>
@@ -4282,32 +4416,32 @@
         <v>5700</v>
       </c>
       <c r="G58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H58" s="3">
         <v>4300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>2500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4323,8 +4457,8 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4347,77 +4481,80 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E59" s="3">
         <v>20600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4427,77 +4564,80 @@
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32000</v>
+        <v>25200</v>
       </c>
       <c r="E60" s="3">
         <v>32000</v>
       </c>
       <c r="F60" s="3">
+        <v>32000</v>
+      </c>
+      <c r="G60" s="3">
         <v>14900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>600</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4507,59 +4647,62 @@
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>1800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9800</v>
-      </c>
-      <c r="P61" s="3">
-        <v>9700</v>
       </c>
       <c r="Q61" s="3">
         <v>9700</v>
       </c>
       <c r="R61" s="3">
+        <v>9700</v>
+      </c>
+      <c r="S61" s="3">
         <v>9600</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4567,17 +4710,17 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>11600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>10500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8100</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4587,32 +4730,35 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E62" s="3">
         <v>8700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
@@ -4620,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
@@ -4638,7 +4784,7 @@
         <v>100</v>
       </c>
       <c r="S62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T62" s="3">
         <v>200</v>
@@ -4647,17 +4793,17 @@
         <v>200</v>
       </c>
       <c r="V62" s="3">
+        <v>200</v>
+      </c>
+      <c r="W62" s="3">
         <v>2500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>800</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4813,11 @@
       <c r="AB62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4827,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4907,77 +5062,80 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E66" s="3">
         <v>42500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>46500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9400</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4987,8 +5145,11 @@
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5017,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5097,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5177,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5257,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5337,77 +5508,80 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-179700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-176300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-172400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-175200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-161500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-147400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-110000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-99400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-89100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-79900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-70900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-62000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-55400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-48900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-41100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-33500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-27500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-21500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-15500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5417,8 +5591,11 @@
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5497,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5577,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5657,77 +5840,80 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E76" s="3">
         <v>29300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>28200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>52600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>66500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>75800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>84800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>91900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>69900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>78100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>49000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>54100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>59500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>64900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-10400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-5600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5737,8 +5923,11 @@
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5817,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-37400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6012,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6086,14 +6285,17 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>3</v>
+      <c r="AA83" s="3">
+        <v>0</v>
       </c>
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6172,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6252,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6332,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6412,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6492,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>27700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-7000</v>
       </c>
       <c r="K89" s="3">
         <v>-7000</v>
       </c>
       <c r="L89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="M89" s="3">
         <v>-7900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6602,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6617,32 +6838,32 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -6667,8 +6888,8 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
@@ -6682,8 +6903,11 @@
       <c r="AB91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6762,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6842,68 +7069,71 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>7000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>15000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>8700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>10500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>29000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>8500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>13000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>6000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-37400</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
@@ -6916,14 +7146,17 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>3</v>
+      <c r="AA94" s="3">
+        <v>0</v>
       </c>
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6952,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7032,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7112,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7192,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7272,88 +7515,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1400</v>
+        <v>-7600</v>
       </c>
       <c r="E100" s="3">
         <v>-1400</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>200</v>
+      </c>
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>30000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>53100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>9900</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3">
         <v>64800</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>1600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>6800</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>1000</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7402,8 +7651,8 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
@@ -7420,8 +7669,8 @@
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z101" s="3">
         <v>0</v>
@@ -7432,84 +7681,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-34600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>33400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-24100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-26800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>22700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-25300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>25200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-14400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>23500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>6400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>800</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
   <si>
     <t>EQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,141 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E8" s="3">
         <v>9100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15800</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,8 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -862,8 +866,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,91 +1072,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E12" s="3">
         <v>9600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>33400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8500</v>
-      </c>
-      <c r="L12" s="3">
-        <v>6700</v>
       </c>
       <c r="M12" s="3">
         <v>6700</v>
       </c>
       <c r="N12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="O12" s="3">
         <v>7200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2500</v>
-      </c>
-      <c r="W12" s="3">
-        <v>1200</v>
       </c>
       <c r="X12" s="3">
         <v>1200</v>
       </c>
       <c r="Y12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z12" s="3">
         <v>500</v>
       </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
       <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
         <v>800</v>
       </c>
-      <c r="AB12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1236,42 +1256,42 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1287,8 +1307,8 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,91 +1445,95 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E17" s="3">
         <v>12700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4200</v>
-      </c>
-      <c r="W17" s="3">
-        <v>2200</v>
       </c>
       <c r="X17" s="3">
         <v>2200</v>
       </c>
       <c r="Y17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1000</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,14 +1541,14 @@
         <v>-3600</v>
       </c>
       <c r="E18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2100</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1531,62 +1561,65 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-8800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-6300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4200</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-2200</v>
       </c>
       <c r="X18" s="3">
         <v>-2200</v>
       </c>
       <c r="Y18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,23 +1649,24 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1645,77 +1679,80 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>300</v>
       </c>
       <c r="S20" s="3">
         <v>300</v>
       </c>
       <c r="T20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U20" s="3">
         <v>400</v>
       </c>
       <c r="V20" s="3">
+        <v>400</v>
+      </c>
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-100</v>
       </c>
       <c r="Y20" s="3">
         <v>-100</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>3</v>
+      <c r="AB20" s="3">
+        <v>0</v>
       </c>
       <c r="AC20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1728,73 +1765,76 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-8900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-6100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-5900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
@@ -1833,7 +1873,7 @@
         <v>300</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1842,126 +1882,132 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>400</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>3</v>
+      <c r="AB22" s="3">
+        <v>0</v>
       </c>
       <c r="AC22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-37400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1977,8 +2023,8 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-37400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-37400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,23 +2679,26 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2641,145 +2711,151 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-300</v>
       </c>
       <c r="S32" s="3">
         <v>-300</v>
       </c>
       <c r="T32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="U32" s="3">
         <v>-400</v>
       </c>
       <c r="V32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1500</v>
-      </c>
-      <c r="X32" s="3">
-        <v>100</v>
       </c>
       <c r="Y32" s="3">
         <v>100</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>3</v>
+      <c r="AB32" s="3">
+        <v>0</v>
       </c>
       <c r="AC32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-37400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-37400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,80 +3180,81 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E41" s="3">
         <v>25600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>59100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>25700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>26200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>50400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>77200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>73500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>50900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>49200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>27700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>22700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>21400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>28500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7100</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3177,71 +3264,74 @@
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E42" s="3">
         <v>22800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>37500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>11900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>18800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>33800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>42600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>30300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>24100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>53200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>58200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>41300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>18500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>27100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>39900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>34600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>34300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>40200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>37400</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3260,23 +3350,26 @@
       <c r="AC42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E43" s="3">
         <v>3700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2800</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3289,8 +3382,8 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -3343,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,79 +3522,82 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
         <v>5200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1600</v>
       </c>
       <c r="P45" s="3">
         <v>1600</v>
       </c>
       <c r="Q45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R45" s="3">
         <v>2100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1200</v>
-      </c>
-      <c r="W45" s="3">
-        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>3</v>
@@ -3509,80 +3608,83 @@
       <c r="AC45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E46" s="3">
         <v>57400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>70200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>76700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>46800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>60500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>72100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>83400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>92200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>99600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>106600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>85200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>92200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>44200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>49800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>55400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>62900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>57800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>62600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>67100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7100</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3592,8 +3694,11 @@
       <c r="AC46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,40 +3780,43 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
@@ -3717,7 +3825,7 @@
         <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -3738,7 +3846,7 @@
         <v>100</v>
       </c>
       <c r="W48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
@@ -3746,8 +3854,8 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>3</v>
+      <c r="Z48" s="3">
+        <v>0</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>3</v>
@@ -3758,8 +3866,11 @@
       <c r="AC48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3823,8 +3934,8 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>3</v>
+      <c r="X49" s="3">
+        <v>0</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>3</v>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4031,14 +4151,14 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
@@ -4066,15 +4186,15 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X52" s="3">
         <v>1300</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,80 +4296,83 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E54" s="3">
         <v>58800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>71800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>78400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>48600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>62500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>74200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>85400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>92500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>99800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>106800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>85400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>92400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>44300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>49900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>55500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>63000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>57900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>62700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>67200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7200</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4256,8 +4382,11 @@
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,80 +4448,81 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1800</v>
       </c>
       <c r="Q57" s="3">
         <v>1800</v>
       </c>
       <c r="R57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S57" s="3">
         <v>1900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4401,8 +4532,11 @@
       <c r="AC57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4410,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>5700</v>
@@ -4419,32 +4553,32 @@
         <v>5700</v>
       </c>
       <c r="H58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I58" s="3">
         <v>4300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1300</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>2500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4460,8 +4594,8 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4484,80 +4618,83 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E59" s="3">
         <v>22200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4567,80 +4704,83 @@
       <c r="AC59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E60" s="3">
         <v>25200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>32000</v>
       </c>
       <c r="F60" s="3">
         <v>32000</v>
       </c>
       <c r="G60" s="3">
+        <v>32000</v>
+      </c>
+      <c r="H60" s="3">
         <v>14900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>600</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4650,8 +4790,11 @@
       <c r="AC60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4659,53 +4802,53 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>1800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9800</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>9700</v>
       </c>
       <c r="R61" s="3">
         <v>9700</v>
       </c>
       <c r="S61" s="3">
+        <v>9700</v>
+      </c>
+      <c r="T61" s="3">
         <v>9600</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4713,17 +4856,17 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>11600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>10500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8100</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
@@ -4733,35 +4876,38 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E62" s="3">
         <v>6600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
@@ -4769,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -4787,7 +4933,7 @@
         <v>100</v>
       </c>
       <c r="T62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U62" s="3">
         <v>200</v>
@@ -4796,17 +4942,17 @@
         <v>200</v>
       </c>
       <c r="W62" s="3">
+        <v>200</v>
+      </c>
+      <c r="X62" s="3">
         <v>2500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>800</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,80 +5220,83 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E66" s="3">
         <v>31800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>42500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>46500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9400</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5148,8 +5306,11 @@
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,80 +5682,83 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-183400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-179700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-176300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-172400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-175200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-161500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-147400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-110000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-99400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-89100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-79900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-70900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-62000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-55400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-48900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-41100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-33500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-27500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-21500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-15500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5594,8 +5768,11 @@
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,80 +6026,83 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E76" s="3">
         <v>27000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>29300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>40300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>52600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>66500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>75800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>84800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>91900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>69900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>78100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>31000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>41800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>49000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>54100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>59500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>64900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-10400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5926,8 +6112,11 @@
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-37400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6288,14 +6487,17 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>3</v>
+      <c r="AB83" s="3">
+        <v>0</v>
       </c>
       <c r="AC83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>27700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-7000</v>
       </c>
       <c r="L89" s="3">
         <v>-7000</v>
       </c>
       <c r="M89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="N89" s="3">
         <v>-7900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6841,32 +7062,32 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -6891,8 +7112,8 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>3</v>
@@ -6906,8 +7127,11 @@
       <c r="AC91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,71 +7299,74 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E94" s="3">
         <v>15000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>7000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>15000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>8700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>10500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>29000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-17000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-23000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>8500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>13000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>6000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-37400</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
@@ -7149,14 +7379,17 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>3</v>
+      <c r="AB94" s="3">
+        <v>0</v>
       </c>
       <c r="AC94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,96 +7761,102 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7600</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-1400</v>
       </c>
       <c r="F100" s="3">
         <v>-1400</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>200</v>
       </c>
       <c r="L100" s="3">
+        <v>200</v>
+      </c>
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>30000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>53100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>9900</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W100" s="3">
         <v>64800</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>1600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>6800</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>1000</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -7654,8 +7903,8 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>3</v>
@@ -7672,8 +7921,8 @@
       <c r="Y101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
+      <c r="Z101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA101" s="3">
         <v>0</v>
@@ -7684,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E102" s="3">
         <v>1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-34600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>33400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-24100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-26800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>22700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>26900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-25300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>25200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-14400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-7100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>23500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>6400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>800</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
